--- a/Lead_Ass_Pckg.xlsx
+++ b/Lead_Ass_Pckg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -133,217 +133,19 @@
     <x:t>User should be able to validate that a New Lead is created</x:t>
   </x:si>
   <x:si>
-    <x:t>Convert Lead to Opportunity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Lead tab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Lead Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>From the list of the  Leads displayed, select the appropriate Lead.</x:t>
+    <x:t>Verify Automatically Assign Users/Queues Lead</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Navigate to the Leads Page.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Lead Page.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>From the list of recent Leads displayed, select the appropriate Lead.</x:t>
   </x:si>
   <x:si>
     <x:t>User should be navigated to the Lead details page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Convert button to convert Lead to Opportunity</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Details of Convert Lead successfully displayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Lead Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Lead Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Lead Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Record Owner</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Record Owner field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Record Owner field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Send Email to the Owner</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Send Email to the Owner field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Send Email to the Owner field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Account Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Account Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Account Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Opportunity Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 8</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Opportunity Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Opportunity Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Do not create a new opportunity upon conversion</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 9</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Do not create a new opportunity upon conversion field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Do not create a new opportunity upon conversion field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Converted Status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 10</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Converted Status field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Converted Status field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Subject</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 11</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Subject field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Subject field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Due Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 12</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Due Date field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Due Date field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Priority</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Priority field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Priority field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Status</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 14</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Status field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Status field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Comments</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 15</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Comments field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Comments field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Set Reminder On/Off</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Set Reminder On/Off field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Set Reminder On/Off field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Reminder Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 17</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Reminder Date field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Reminder Date field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Valid value for Reminder Time</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Reminder Time field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Value accepted for Reminder Time field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 19</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Details of Accounts successfully displayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Verify Automatically Assign Users/Queues Lead</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Navigate to the Leads Page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Lead Page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>From the list of recent Leads displayed, select the appropriate Lead.</x:t>
   </x:si>
   <x:si>
     <x:t>Validate if the Industry is set to equals Banking .</x:t>
@@ -439,8 +241,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J31" totalsRowShown="0">
-  <x:autoFilter ref="A1:J31"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J12" totalsRowShown="0">
+  <x:autoFilter ref="A1:J12"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -745,7 +547,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J31"/>
+  <x:dimension ref="A1:J12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -755,8 +557,8 @@
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="44.550625000000004" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="59.840625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="9.410625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="48.840625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="86.270625" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="75.840624999999989" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
@@ -1004,398 +806,18 @@
       <x:c r="B12" s="0" t="s"/>
       <x:c r="C12" s="0" t="s"/>
       <x:c r="D12" s="0" t="s"/>
-      <x:c r="E12" s="0" t="s">
-        <x:v>46</x:v>
-      </x:c>
+      <x:c r="E12" s="0" t="s"/>
       <x:c r="F12" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
         <x:v>47</x:v>
-      </x:c>
-      <x:c r="H12" s="0" t="s">
-        <x:v>48</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:10">
-      <x:c r="A13" s="0" t="s"/>
-      <x:c r="B13" s="0" t="s"/>
-      <x:c r="C13" s="0" t="s"/>
-      <x:c r="D13" s="0" t="s"/>
-      <x:c r="E13" s="0" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="F13" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G13" s="0" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="H13" s="0" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="I13" s="0" t="s"/>
-      <x:c r="J13" s="0" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:10">
-      <x:c r="A14" s="0" t="s"/>
-      <x:c r="B14" s="0" t="s"/>
-      <x:c r="C14" s="0" t="s"/>
-      <x:c r="D14" s="0" t="s"/>
-      <x:c r="E14" s="0" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="H14" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="I14" s="0" t="s"/>
-      <x:c r="J14" s="0" t="s"/>
-    </x:row>
-    <x:row r="15" spans="1:10">
-      <x:c r="A15" s="0" t="s"/>
-      <x:c r="B15" s="0" t="s"/>
-      <x:c r="C15" s="0" t="s"/>
-      <x:c r="D15" s="0" t="s"/>
-      <x:c r="E15" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="F15" s="0" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="G15" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="H15" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="I15" s="0" t="s"/>
-      <x:c r="J15" s="0" t="s"/>
-    </x:row>
-    <x:row r="16" spans="1:10">
-      <x:c r="A16" s="0" t="s"/>
-      <x:c r="B16" s="0" t="s"/>
-      <x:c r="C16" s="0" t="s"/>
-      <x:c r="D16" s="0" t="s"/>
-      <x:c r="E16" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F16" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="G16" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="H16" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="I16" s="0" t="s"/>
-      <x:c r="J16" s="0" t="s"/>
-    </x:row>
-    <x:row r="17" spans="1:10">
-      <x:c r="A17" s="0" t="s"/>
-      <x:c r="B17" s="0" t="s"/>
-      <x:c r="C17" s="0" t="s"/>
-      <x:c r="D17" s="0" t="s"/>
-      <x:c r="E17" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="F17" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="G17" s="0" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="H17" s="0" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="I17" s="0" t="s"/>
-      <x:c r="J17" s="0" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:10">
-      <x:c r="A18" s="0" t="s"/>
-      <x:c r="B18" s="0" t="s"/>
-      <x:c r="C18" s="0" t="s"/>
-      <x:c r="D18" s="0" t="s"/>
-      <x:c r="E18" s="0" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="F18" s="0" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="G18" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="H18" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="I18" s="0" t="s"/>
-      <x:c r="J18" s="0" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:10">
-      <x:c r="A19" s="0" t="s"/>
-      <x:c r="B19" s="0" t="s"/>
-      <x:c r="C19" s="0" t="s"/>
-      <x:c r="D19" s="0" t="s"/>
-      <x:c r="E19" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="F19" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="G19" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="H19" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="I19" s="0" t="s"/>
-      <x:c r="J19" s="0" t="s"/>
-    </x:row>
-    <x:row r="20" spans="1:10">
-      <x:c r="A20" s="0" t="s"/>
-      <x:c r="B20" s="0" t="s"/>
-      <x:c r="C20" s="0" t="s"/>
-      <x:c r="D20" s="0" t="s"/>
-      <x:c r="E20" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="F20" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="G20" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H20" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="I20" s="0" t="s"/>
-      <x:c r="J20" s="0" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:10">
-      <x:c r="A21" s="0" t="s"/>
-      <x:c r="B21" s="0" t="s"/>
-      <x:c r="C21" s="0" t="s"/>
-      <x:c r="D21" s="0" t="s"/>
-      <x:c r="E21" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="F21" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="G21" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="H21" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="I21" s="0" t="s"/>
-      <x:c r="J21" s="0" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:10">
-      <x:c r="A22" s="0" t="s"/>
-      <x:c r="B22" s="0" t="s"/>
-      <x:c r="C22" s="0" t="s"/>
-      <x:c r="D22" s="0" t="s"/>
-      <x:c r="E22" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="F22" s="0" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="G22" s="0" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="H22" s="0" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="I22" s="0" t="s"/>
-      <x:c r="J22" s="0" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:10">
-      <x:c r="A23" s="0" t="s"/>
-      <x:c r="B23" s="0" t="s"/>
-      <x:c r="C23" s="0" t="s"/>
-      <x:c r="D23" s="0" t="s"/>
-      <x:c r="E23" s="0" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="F23" s="0" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="G23" s="0" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="H23" s="0" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="I23" s="0" t="s"/>
-      <x:c r="J23" s="0" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:10">
-      <x:c r="A24" s="0" t="s"/>
-      <x:c r="B24" s="0" t="s"/>
-      <x:c r="C24" s="0" t="s"/>
-      <x:c r="D24" s="0" t="s"/>
-      <x:c r="E24" s="0" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="F24" s="0" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="G24" s="0" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="H24" s="0" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="I24" s="0" t="s"/>
-      <x:c r="J24" s="0" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:10">
-      <x:c r="A25" s="0" t="s"/>
-      <x:c r="B25" s="0" t="s"/>
-      <x:c r="C25" s="0" t="s"/>
-      <x:c r="D25" s="0" t="s"/>
-      <x:c r="E25" s="0" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="F25" s="0" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="G25" s="0" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="H25" s="0" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="I25" s="0" t="s"/>
-      <x:c r="J25" s="0" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:10">
-      <x:c r="A26" s="0" t="s"/>
-      <x:c r="B26" s="0" t="s"/>
-      <x:c r="C26" s="0" t="s"/>
-      <x:c r="D26" s="0" t="s"/>
-      <x:c r="E26" s="0" t="s">
-        <x:v>98</x:v>
-      </x:c>
-      <x:c r="F26" s="0" t="s">
-        <x:v>99</x:v>
-      </x:c>
-      <x:c r="G26" s="0" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="H26" s="0" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="I26" s="0" t="s"/>
-      <x:c r="J26" s="0" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:10">
-      <x:c r="A27" s="0" t="s"/>
-      <x:c r="B27" s="0" t="s"/>
-      <x:c r="C27" s="0" t="s"/>
-      <x:c r="D27" s="0" t="s"/>
-      <x:c r="E27" s="0" t="s"/>
-      <x:c r="F27" s="0" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="G27" s="0" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="H27" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-      <x:c r="I27" s="0" t="s"/>
-      <x:c r="J27" s="0" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:10">
-      <x:c r="A28" s="0" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="B28" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="C28" s="0" t="s">
-        <x:v>106</x:v>
-      </x:c>
-      <x:c r="D28" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="E28" s="0" t="s"/>
-      <x:c r="F28" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G28" s="0" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="H28" s="0" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="I28" s="0" t="s"/>
-      <x:c r="J28" s="0" t="s"/>
-    </x:row>
-    <x:row r="29" spans="1:10">
-      <x:c r="A29" s="0" t="s"/>
-      <x:c r="B29" s="0" t="s"/>
-      <x:c r="C29" s="0" t="s"/>
-      <x:c r="D29" s="0" t="s"/>
-      <x:c r="E29" s="0" t="s"/>
-      <x:c r="F29" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G29" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="H29" s="0" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="I29" s="0" t="s"/>
-      <x:c r="J29" s="0" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:10">
-      <x:c r="A30" s="0" t="s"/>
-      <x:c r="B30" s="0" t="s"/>
-      <x:c r="C30" s="0" t="s"/>
-      <x:c r="D30" s="0" t="s"/>
-      <x:c r="E30" s="0" t="s"/>
-      <x:c r="F30" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G30" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="H30" s="0" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="I30" s="0" t="s"/>
-      <x:c r="J30" s="0" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:10">
-      <x:c r="A31" s="0" t="s"/>
-      <x:c r="B31" s="0" t="s"/>
-      <x:c r="C31" s="0" t="s"/>
-      <x:c r="D31" s="0" t="s"/>
-      <x:c r="E31" s="0" t="s"/>
-      <x:c r="F31" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G31" s="0" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="H31" s="0" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="I31" s="0" t="s"/>
-      <x:c r="J31" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
